--- a/data/match_4.xlsx
+++ b/data/match_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DCA6B6-9E78-49A1-B105-10ADE80CF2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF51A68B-A02A-464A-BE93-E6A4D86F95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="51">
   <si>
     <t>№</t>
   </si>
@@ -179,19 +179,10 @@
     <t>Данилов Евгений</t>
   </si>
   <si>
-    <t>Фёдоров Михаил</t>
-  </si>
-  <si>
     <t>Гришин Антон</t>
   </si>
   <si>
     <t>Алферов Ян</t>
-  </si>
-  <si>
-    <t>Еременко Владислав</t>
-  </si>
-  <si>
-    <t>Оксанич Кирилл</t>
   </si>
   <si>
     <t>Котов Александр</t>
@@ -566,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A19" activeCellId="1" sqref="A6:XFD6 A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -721,7 +712,7 @@
         <v>13.5</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -931,31 +922,22 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -964,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -976,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -994,89 +976,98 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>19.5</v>
+        <v>6.5</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -1091,105 +1082,105 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>23</v>
-      </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9">
         <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9">
-        <v>5</v>
       </c>
       <c r="T9" t="s">
         <v>25</v>
@@ -1206,22 +1197,22 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1233,43 +1224,43 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
         <v>38</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1277,28 +1268,28 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1316,31 +1307,31 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1348,70 +1339,70 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12">
         <v>5</v>
       </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-      <c r="R12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12">
-        <v>3</v>
-      </c>
       <c r="T12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1419,22 +1410,22 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1446,40 +1437,40 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13">
         <v>3</v>
       </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13">
-        <v>5</v>
-      </c>
       <c r="T13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
         <v>22</v>
@@ -1490,13 +1481,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -1505,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1535,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -1547,16 +1538,16 @@
         <v>3</v>
       </c>
       <c r="T14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1564,7 +1555,7 @@
         <v>2.5</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>19</v>
@@ -1576,52 +1567,52 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15">
         <v>5</v>
       </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15">
         <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-      <c r="R15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S15">
-        <v>3</v>
-      </c>
-      <c r="T15" t="s">
-        <v>25</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
       </c>
       <c r="V15" t="s">
         <v>27</v>
@@ -1632,16 +1623,16 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16.5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1659,43 +1650,43 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -1703,13 +1694,13 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -1718,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1730,10 +1721,10 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
@@ -1748,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s">
         <v>22</v>
@@ -1766,33 +1757,30 @@
         <v>5</v>
       </c>
       <c r="V17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="W17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
         <v>23</v>
@@ -1801,258 +1789,51 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="U18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
         <v>22</v>
       </c>
       <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19">
-        <v>3</v>
-      </c>
-      <c r="T19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U19">
-        <v>5</v>
-      </c>
-      <c r="V19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-      <c r="R20" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>26</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>22</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-      <c r="P21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
-        <v>25</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
-        <v>22</v>
-      </c>
-      <c r="W21">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W21">
-    <sortCondition ref="B1:B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
